--- a/RoadMap/NewMap_Excel/Map3_2.xlsx
+++ b/RoadMap/NewMap_Excel/Map3_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuzu2\Desktop\TeamCreate\デザインしたやつ\マップ\Excelデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F78615-3E90-44DC-8DDC-D1FF2399E4C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71426FB4-E0F4-4637-8993-DCBD9C6D8F6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,11 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="19">
-  <si>
-    <t>Se</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="18">
   <si>
     <t>Line_1</t>
     <phoneticPr fontId="1"/>
@@ -86,7 +82,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Me</t>
+    <t>C</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -675,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GJ424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R298" sqref="R298"/>
+    <sheetView tabSelected="1" topLeftCell="A324" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J330" sqref="J330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -730,49 +726,49 @@
     <row r="1" spans="1:192" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="12"/>
       <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="25" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>15</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="4"/>
@@ -798,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -996,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -1194,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -1392,7 +1388,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -1590,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -1788,7 +1784,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -1986,7 +1982,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -2184,7 +2180,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -2382,7 +2378,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -2580,7 +2576,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -2778,7 +2774,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -2976,7 +2972,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -3174,7 +3170,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -3372,7 +3368,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -3570,7 +3566,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -3768,7 +3764,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -3966,7 +3962,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -4164,7 +4160,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -4362,7 +4358,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -4560,7 +4556,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -4758,7 +4754,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -4956,7 +4952,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5154,7 +5150,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5352,7 +5348,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5550,7 +5546,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5748,7 +5744,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5946,7 +5942,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -6144,7 +6140,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -6342,7 +6338,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -6540,7 +6536,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -6738,7 +6734,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -6936,7 +6932,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -7134,7 +7130,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -7332,7 +7328,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -7530,7 +7526,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
@@ -7728,7 +7724,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -7926,7 +7922,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
@@ -8124,7 +8120,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
@@ -8168,7 +8164,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
@@ -8208,7 +8204,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
@@ -8248,7 +8244,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
@@ -8288,7 +8284,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
@@ -8328,7 +8324,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
@@ -8368,7 +8364,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
@@ -8408,7 +8404,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
@@ -8448,7 +8444,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
@@ -8488,7 +8484,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
@@ -8528,7 +8524,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
@@ -8568,7 +8564,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
@@ -8608,7 +8604,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
@@ -8648,7 +8644,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
@@ -8688,7 +8684,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
@@ -8728,7 +8724,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
@@ -8768,7 +8764,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
@@ -8808,7 +8804,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -8848,7 +8844,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -8888,7 +8884,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -8928,7 +8924,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
@@ -8968,7 +8964,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
@@ -9008,7 +9004,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
@@ -9048,7 +9044,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
@@ -9088,7 +9084,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
@@ -9128,7 +9124,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
@@ -9168,7 +9164,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
@@ -9208,7 +9204,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
@@ -9248,7 +9244,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
@@ -9288,7 +9284,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
@@ -9328,7 +9324,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
@@ -9368,7 +9364,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
@@ -9408,7 +9404,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
@@ -9448,7 +9444,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
@@ -9488,7 +9484,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
@@ -9528,7 +9524,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
@@ -9568,7 +9564,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="22"/>
@@ -9608,7 +9604,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="22"/>
@@ -9648,7 +9644,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="22"/>
@@ -9688,7 +9684,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
@@ -9728,7 +9724,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
@@ -9768,7 +9764,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
@@ -9808,7 +9804,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C81" s="22"/>
       <c r="D81" s="22"/>
@@ -9848,7 +9844,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
@@ -9888,7 +9884,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C83" s="22"/>
       <c r="D83" s="22"/>
@@ -9928,7 +9924,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C84" s="22"/>
       <c r="D84" s="22"/>
@@ -9968,7 +9964,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
@@ -10008,7 +10004,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C86" s="22"/>
       <c r="D86" s="22"/>
@@ -10048,7 +10044,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C87" s="22"/>
       <c r="D87" s="22"/>
@@ -10088,7 +10084,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C88" s="22"/>
       <c r="D88" s="22"/>
@@ -10128,7 +10124,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C89" s="22"/>
       <c r="D89" s="22"/>
@@ -10168,7 +10164,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
@@ -10208,7 +10204,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
@@ -10248,7 +10244,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92" s="22"/>
       <c r="D92" s="22"/>
@@ -10288,7 +10284,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C93" s="22"/>
       <c r="D93" s="22"/>
@@ -10328,7 +10324,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C94" s="22"/>
       <c r="D94" s="22"/>
@@ -10368,7 +10364,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C95" s="22"/>
       <c r="D95" s="22"/>
@@ -10408,7 +10404,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C96" s="22"/>
       <c r="D96" s="22"/>
@@ -10448,7 +10444,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C97" s="22"/>
       <c r="D97" s="22"/>
@@ -10488,7 +10484,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C98" s="22"/>
       <c r="D98" s="22"/>
@@ -10528,7 +10524,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C99" s="22"/>
       <c r="D99" s="22"/>
@@ -10568,7 +10564,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C100" s="22"/>
       <c r="D100" s="22"/>
@@ -10608,7 +10604,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C101" s="22"/>
       <c r="D101" s="22"/>
@@ -10648,7 +10644,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C102" s="22"/>
       <c r="D102" s="22"/>
@@ -10688,7 +10684,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C103" s="22"/>
       <c r="D103" s="22"/>
@@ -10728,7 +10724,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C104" s="22"/>
       <c r="D104" s="22"/>
@@ -10768,7 +10764,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C105" s="22"/>
       <c r="D105" s="22"/>
@@ -10808,7 +10804,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C106" s="22"/>
       <c r="D106" s="22"/>
@@ -10848,7 +10844,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C107" s="22"/>
       <c r="D107" s="22"/>
@@ -10888,7 +10884,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C108" s="22"/>
       <c r="D108" s="22"/>
@@ -10928,7 +10924,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C109" s="22"/>
       <c r="D109" s="22"/>
@@ -10968,7 +10964,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C110" s="22"/>
       <c r="D110" s="22"/>
@@ -11008,7 +11004,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C111" s="22"/>
       <c r="D111" s="22"/>
@@ -11048,7 +11044,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C112" s="22"/>
       <c r="D112" s="22"/>
@@ -11088,7 +11084,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C113" s="22"/>
       <c r="D113" s="22"/>
@@ -11128,7 +11124,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C114" s="22"/>
       <c r="D114" s="22"/>
@@ -11168,7 +11164,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C115" s="22"/>
       <c r="D115" s="22"/>
@@ -11208,7 +11204,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C116" s="22"/>
       <c r="D116" s="22"/>
@@ -11248,7 +11244,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C117" s="22"/>
       <c r="D117" s="22"/>
@@ -11288,7 +11284,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C118" s="22"/>
       <c r="D118" s="22"/>
@@ -11328,7 +11324,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C119" s="22"/>
       <c r="D119" s="22"/>
@@ -11368,7 +11364,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C120" s="22"/>
       <c r="D120" s="22"/>
@@ -11408,7 +11404,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C121" s="22"/>
       <c r="D121" s="22"/>
@@ -11448,7 +11444,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C122" s="22"/>
       <c r="D122" s="22"/>
@@ -11488,7 +11484,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C123" s="22"/>
       <c r="D123" s="22"/>
@@ -11528,7 +11524,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C124" s="22"/>
       <c r="D124" s="22"/>
@@ -11568,7 +11564,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C125" s="22"/>
       <c r="D125" s="22"/>
@@ -11608,7 +11604,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C126" s="22"/>
       <c r="D126" s="22"/>
@@ -11648,7 +11644,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C127" s="22"/>
       <c r="D127" s="22"/>
@@ -11688,7 +11684,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C128" s="22"/>
       <c r="D128" s="22"/>
@@ -11728,7 +11724,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C129" s="22"/>
       <c r="D129" s="22"/>
@@ -11768,7 +11764,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C130" s="22"/>
       <c r="D130" s="22"/>
@@ -11808,7 +11804,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C131" s="22"/>
       <c r="D131" s="22"/>
@@ -11848,7 +11844,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C132" s="22"/>
       <c r="D132" s="22"/>
@@ -11888,7 +11884,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C133" s="22"/>
       <c r="D133" s="22"/>
@@ -11928,7 +11924,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C134" s="22"/>
       <c r="D134" s="22"/>
@@ -11968,7 +11964,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C135" s="22"/>
       <c r="D135" s="22"/>
@@ -12008,7 +12004,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C136" s="22"/>
       <c r="D136" s="22"/>
@@ -12048,7 +12044,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C137" s="22"/>
       <c r="D137" s="22"/>
@@ -12088,7 +12084,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C138" s="22"/>
       <c r="D138" s="22"/>
@@ -12128,7 +12124,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C139" s="22"/>
       <c r="D139" s="22"/>
@@ -12168,7 +12164,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C140" s="22"/>
       <c r="D140" s="22"/>
@@ -12208,7 +12204,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C141" s="22"/>
       <c r="D141" s="22"/>
@@ -12248,7 +12244,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C142" s="22"/>
       <c r="D142" s="22"/>
@@ -12288,7 +12284,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C143" s="22"/>
       <c r="D143" s="22"/>
@@ -12328,7 +12324,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C144" s="22"/>
       <c r="D144" s="22"/>
@@ -12368,7 +12364,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C145" s="22"/>
       <c r="D145" s="22"/>
@@ -12408,7 +12404,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C146" s="22"/>
       <c r="D146" s="22"/>
@@ -12448,7 +12444,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C147" s="22"/>
       <c r="D147" s="22"/>
@@ -12488,7 +12484,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C148" s="22"/>
       <c r="D148" s="22"/>
@@ -12528,7 +12524,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C149" s="22"/>
       <c r="D149" s="22"/>
@@ -12568,7 +12564,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C150" s="22"/>
       <c r="D150" s="22"/>
@@ -12608,7 +12604,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C151" s="22"/>
       <c r="D151" s="22"/>
@@ -12648,7 +12644,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C152" s="22"/>
       <c r="D152" s="22"/>
@@ -12688,7 +12684,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C153" s="22"/>
       <c r="D153" s="22"/>
@@ -12728,7 +12724,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C154" s="22"/>
       <c r="D154" s="22"/>
@@ -12768,7 +12764,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C155" s="22"/>
       <c r="D155" s="22"/>
@@ -12808,7 +12804,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C156" s="22"/>
       <c r="D156" s="22"/>
@@ -12848,7 +12844,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C157" s="22"/>
       <c r="D157" s="22"/>
@@ -12888,7 +12884,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C158" s="22"/>
       <c r="D158" s="22"/>
@@ -12928,7 +12924,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C159" s="22"/>
       <c r="D159" s="22"/>
@@ -12968,7 +12964,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C160" s="22"/>
       <c r="D160" s="22"/>
@@ -13008,7 +13004,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C161" s="22"/>
       <c r="D161" s="22"/>
@@ -13048,7 +13044,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C162" s="22"/>
       <c r="D162" s="22"/>
@@ -13088,7 +13084,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C163" s="22"/>
       <c r="D163" s="22"/>
@@ -13128,7 +13124,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C164" s="22"/>
       <c r="D164" s="22"/>
@@ -13168,7 +13164,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C165" s="22"/>
       <c r="D165" s="22"/>
@@ -13208,7 +13204,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C166" s="22"/>
       <c r="D166" s="22"/>
@@ -13248,7 +13244,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C167" s="22"/>
       <c r="D167" s="22"/>
@@ -13288,7 +13284,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C168" s="22"/>
       <c r="D168" s="22"/>
@@ -13328,7 +13324,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C169" s="22"/>
       <c r="D169" s="22"/>
@@ -13368,7 +13364,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C170" s="22"/>
       <c r="D170" s="22"/>
@@ -13408,7 +13404,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C171" s="22"/>
       <c r="D171" s="22"/>
@@ -13448,7 +13444,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C172" s="22"/>
       <c r="D172" s="22"/>
@@ -13488,7 +13484,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C173" s="22"/>
       <c r="D173" s="22"/>
@@ -13528,7 +13524,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C174" s="22"/>
       <c r="D174" s="22"/>
@@ -13568,7 +13564,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C175" s="22"/>
       <c r="D175" s="22"/>
@@ -13608,7 +13604,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C176" s="22"/>
       <c r="D176" s="22"/>
@@ -13648,7 +13644,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C177" s="22"/>
       <c r="D177" s="22"/>
@@ -13688,7 +13684,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C178" s="22"/>
       <c r="D178" s="22"/>
@@ -13728,7 +13724,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C179" s="22"/>
       <c r="D179" s="22"/>
@@ -13768,7 +13764,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C180" s="22"/>
       <c r="D180" s="22"/>
@@ -13808,7 +13804,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C181" s="22"/>
       <c r="D181" s="22"/>
@@ -13848,7 +13844,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C182" s="22"/>
       <c r="D182" s="22"/>
@@ -13888,7 +13884,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C183" s="22"/>
       <c r="D183" s="22"/>
@@ -13928,7 +13924,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C184" s="22"/>
       <c r="D184" s="22"/>
@@ -13968,7 +13964,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C185" s="22"/>
       <c r="D185" s="22"/>
@@ -14008,7 +14004,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C186" s="22"/>
       <c r="D186" s="22"/>
@@ -14048,7 +14044,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C187" s="22"/>
       <c r="D187" s="22"/>
@@ -14088,7 +14084,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C188" s="22"/>
       <c r="D188" s="22"/>
@@ -14128,7 +14124,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C189" s="22"/>
       <c r="D189" s="22"/>
@@ -14168,7 +14164,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C190" s="22"/>
       <c r="D190" s="22"/>
@@ -14208,7 +14204,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C191" s="22"/>
       <c r="D191" s="22"/>
@@ -14248,7 +14244,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C192" s="22"/>
       <c r="D192" s="22"/>
@@ -14288,7 +14284,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C193" s="22"/>
       <c r="D193" s="22"/>
@@ -14328,7 +14324,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C194" s="22"/>
       <c r="D194" s="22"/>
@@ -14368,7 +14364,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C195" s="22"/>
       <c r="D195" s="22"/>
@@ -14408,7 +14404,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C196" s="22"/>
       <c r="D196" s="22"/>
@@ -14448,7 +14444,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C197" s="22"/>
       <c r="D197" s="22"/>
@@ -14488,7 +14484,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C198" s="22"/>
       <c r="D198" s="22"/>
@@ -14528,7 +14524,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C199" s="22"/>
       <c r="D199" s="22"/>
@@ -14568,7 +14564,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C200" s="22"/>
       <c r="D200" s="22"/>
@@ -14608,7 +14604,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C201" s="22"/>
       <c r="D201" s="22"/>
@@ -14648,7 +14644,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C202" s="22"/>
       <c r="D202" s="22"/>
@@ -14688,7 +14684,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C203" s="22"/>
       <c r="D203" s="22"/>
@@ -14728,7 +14724,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C204" s="22"/>
       <c r="D204" s="22"/>
@@ -14768,7 +14764,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C205" s="22"/>
       <c r="D205" s="22"/>
@@ -14808,7 +14804,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C206" s="22"/>
       <c r="D206" s="22"/>
@@ -14848,7 +14844,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C207" s="22"/>
       <c r="D207" s="22"/>
@@ -14888,7 +14884,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C208" s="22"/>
       <c r="D208" s="22"/>
@@ -14928,7 +14924,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C209" s="22"/>
       <c r="D209" s="22"/>
@@ -14968,7 +14964,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C210" s="22"/>
       <c r="D210" s="22"/>
@@ -15008,7 +15004,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C211" s="22"/>
       <c r="D211" s="22"/>
@@ -15048,7 +15044,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C212" s="22"/>
       <c r="D212" s="22"/>
@@ -15088,7 +15084,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C213" s="22"/>
       <c r="D213" s="22"/>
@@ -15128,7 +15124,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C214" s="22"/>
       <c r="D214" s="22"/>
@@ -15168,7 +15164,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C215" s="22"/>
       <c r="D215" s="22"/>
@@ -15208,7 +15204,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C216" s="22"/>
       <c r="D216" s="22"/>
@@ -15248,7 +15244,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C217" s="22"/>
       <c r="D217" s="22"/>
@@ -15288,7 +15284,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C218" s="22"/>
       <c r="D218" s="22"/>
@@ -15328,7 +15324,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C219" s="22"/>
       <c r="D219" s="22"/>
@@ -15368,7 +15364,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C220" s="22"/>
       <c r="D220" s="22"/>
@@ -15408,7 +15404,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C221" s="22"/>
       <c r="D221" s="22"/>
@@ -15448,7 +15444,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C222" s="22"/>
       <c r="D222" s="22"/>
@@ -15488,7 +15484,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C223" s="22"/>
       <c r="D223" s="22"/>
@@ -15528,7 +15524,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C224" s="22"/>
       <c r="D224" s="22"/>
@@ -15568,7 +15564,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C225" s="22"/>
       <c r="D225" s="22"/>
@@ -15608,7 +15604,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C226" s="22"/>
       <c r="D226" s="22"/>
@@ -15648,7 +15644,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C227" s="22"/>
       <c r="D227" s="22"/>
@@ -15688,7 +15684,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C228" s="22"/>
       <c r="D228" s="22"/>
@@ -15728,7 +15724,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C229" s="22"/>
       <c r="D229" s="22"/>
@@ -15768,7 +15764,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C230" s="22"/>
       <c r="D230" s="22"/>
@@ -15808,7 +15804,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C231" s="22"/>
       <c r="D231" s="22"/>
@@ -15848,7 +15844,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C232" s="22"/>
       <c r="D232" s="22"/>
@@ -15888,7 +15884,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C233" s="22"/>
       <c r="D233" s="22"/>
@@ -15928,7 +15924,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C234" s="22"/>
       <c r="D234" s="22"/>
@@ -15968,7 +15964,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C235" s="22"/>
       <c r="D235" s="22"/>
@@ -16008,7 +16004,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C236" s="22"/>
       <c r="D236" s="22"/>
@@ -16048,7 +16044,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C237" s="22"/>
       <c r="D237" s="22"/>
@@ -16088,7 +16084,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C238" s="22"/>
       <c r="D238" s="22"/>
@@ -16128,7 +16124,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C239" s="22"/>
       <c r="D239" s="22"/>
@@ -16168,7 +16164,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C240" s="22"/>
       <c r="D240" s="22"/>
@@ -16208,7 +16204,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C241" s="22"/>
       <c r="D241" s="22"/>
@@ -16248,7 +16244,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C242" s="22"/>
       <c r="D242" s="22"/>
@@ -16288,7 +16284,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C243" s="22"/>
       <c r="D243" s="22"/>
@@ -16328,7 +16324,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C244" s="22"/>
       <c r="D244" s="22"/>
@@ -16368,7 +16364,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C245" s="22"/>
       <c r="D245" s="22"/>
@@ -16408,7 +16404,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C246" s="22"/>
       <c r="D246" s="22"/>
@@ -16448,7 +16444,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C247" s="22"/>
       <c r="D247" s="22"/>
@@ -16488,7 +16484,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C248" s="22"/>
       <c r="D248" s="22"/>
@@ -16528,7 +16524,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C249" s="22"/>
       <c r="D249" s="22"/>
@@ -16568,7 +16564,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C250" s="22"/>
       <c r="D250" s="22"/>
@@ -16608,7 +16604,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C251" s="22"/>
       <c r="D251" s="22"/>
@@ -16648,7 +16644,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C252" s="22"/>
       <c r="D252" s="22"/>
@@ -16688,7 +16684,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C253" s="22"/>
       <c r="D253" s="22"/>
@@ -16728,7 +16724,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C254" s="22"/>
       <c r="D254" s="22"/>
@@ -16768,7 +16764,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C255" s="22"/>
       <c r="D255" s="22"/>
@@ -16808,7 +16804,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C256" s="22"/>
       <c r="D256" s="22"/>
@@ -16848,7 +16844,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C257" s="22"/>
       <c r="D257" s="22"/>
@@ -16888,7 +16884,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C258" s="22"/>
       <c r="D258" s="22"/>
@@ -16928,7 +16924,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C259" s="22"/>
       <c r="D259" s="22"/>
@@ -16968,7 +16964,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C260" s="22"/>
       <c r="D260" s="22"/>
@@ -17008,7 +17004,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C261" s="22"/>
       <c r="D261" s="22"/>
@@ -17048,7 +17044,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C262" s="22"/>
       <c r="D262" s="22"/>
@@ -17088,7 +17084,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C263" s="22"/>
       <c r="D263" s="22"/>
@@ -17128,7 +17124,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C264" s="22"/>
       <c r="D264" s="22"/>
@@ -17168,7 +17164,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C265" s="22"/>
       <c r="D265" s="22"/>
@@ -17208,7 +17204,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C266" s="22"/>
       <c r="D266" s="22"/>
@@ -17248,7 +17244,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C267" s="22"/>
       <c r="D267" s="22"/>
@@ -17288,7 +17284,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C268" s="22"/>
       <c r="D268" s="22"/>
@@ -17328,7 +17324,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C269" s="22"/>
       <c r="D269" s="22"/>
@@ -17368,7 +17364,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C270" s="22"/>
       <c r="D270" s="22"/>
@@ -17408,7 +17404,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C271" s="22"/>
       <c r="D271" s="22"/>
@@ -17448,7 +17444,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C272" s="22"/>
       <c r="D272" s="22"/>
@@ -17488,7 +17484,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C273" s="22"/>
       <c r="D273" s="22"/>
@@ -17528,7 +17524,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C274" s="22"/>
       <c r="D274" s="22"/>
@@ -17568,7 +17564,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C275" s="22"/>
       <c r="D275" s="22"/>
@@ -17608,7 +17604,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C276" s="22"/>
       <c r="D276" s="22"/>
@@ -17648,7 +17644,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C277" s="22"/>
       <c r="D277" s="22"/>
@@ -17688,7 +17684,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C278" s="22"/>
       <c r="D278" s="22"/>
@@ -17728,7 +17724,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C279" s="22"/>
       <c r="D279" s="22"/>
@@ -17768,7 +17764,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C280" s="22"/>
       <c r="D280" s="22"/>
@@ -17808,7 +17804,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C281" s="22"/>
       <c r="D281" s="22"/>
@@ -17848,7 +17844,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C282" s="22"/>
       <c r="D282" s="22"/>
@@ -17888,7 +17884,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C283" s="22"/>
       <c r="D283" s="22"/>
@@ -17928,7 +17924,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C284" s="22"/>
       <c r="D284" s="22"/>
@@ -17968,7 +17964,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C285" s="22"/>
       <c r="D285" s="22"/>
@@ -18008,7 +18004,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C286" s="22"/>
       <c r="D286" s="22"/>
@@ -18048,7 +18044,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C287" s="22"/>
       <c r="D287" s="22"/>
@@ -18088,7 +18084,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C288" s="22"/>
       <c r="D288" s="22"/>
@@ -18128,7 +18124,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C289" s="22"/>
       <c r="D289" s="22"/>
@@ -18168,7 +18164,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C290" s="22"/>
       <c r="D290" s="22"/>
@@ -18208,7 +18204,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C291" s="17"/>
       <c r="D291" s="17"/>
@@ -18466,6 +18462,9 @@
         <v>297</v>
       </c>
       <c r="B298" s="26"/>
+      <c r="L298" t="s">
+        <v>17</v>
+      </c>
       <c r="P298" s="5"/>
       <c r="Q298" s="2"/>
       <c r="R298" s="4"/>
@@ -18530,6 +18529,9 @@
         <v>299</v>
       </c>
       <c r="B300" s="26"/>
+      <c r="L300" t="s">
+        <v>17</v>
+      </c>
       <c r="P300" s="5"/>
       <c r="Q300" s="2"/>
       <c r="R300" s="4"/>
@@ -18594,6 +18596,9 @@
         <v>301</v>
       </c>
       <c r="B302" s="26"/>
+      <c r="K302" t="s">
+        <v>17</v>
+      </c>
       <c r="P302" s="5"/>
       <c r="Q302" s="2"/>
       <c r="R302" s="4"/>
@@ -18659,7 +18664,7 @@
       </c>
       <c r="B304" s="26"/>
       <c r="K304" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P304" s="5"/>
       <c r="Q304" s="2"/>
@@ -18725,6 +18730,9 @@
         <v>305</v>
       </c>
       <c r="B306" s="26"/>
+      <c r="J306" t="s">
+        <v>17</v>
+      </c>
       <c r="P306" s="5"/>
       <c r="Q306" s="2"/>
       <c r="R306" s="4"/>
@@ -18789,6 +18797,9 @@
         <v>307</v>
       </c>
       <c r="B308" s="26"/>
+      <c r="J308" t="s">
+        <v>17</v>
+      </c>
       <c r="P308" s="5"/>
       <c r="Q308" s="2"/>
       <c r="R308" s="4"/>
@@ -18854,7 +18865,7 @@
       </c>
       <c r="B310" s="26"/>
       <c r="J310" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P310" s="5"/>
       <c r="Q310" s="2"/>
@@ -18920,6 +18931,9 @@
         <v>311</v>
       </c>
       <c r="B312" s="26"/>
+      <c r="I312" t="s">
+        <v>17</v>
+      </c>
       <c r="P312" s="5"/>
       <c r="Q312" s="2"/>
       <c r="R312" s="4"/>
@@ -18952,9 +18966,6 @@
         <v>312</v>
       </c>
       <c r="B313" s="26"/>
-      <c r="I313" t="s">
-        <v>18</v>
-      </c>
       <c r="P313" s="5"/>
       <c r="Q313" s="2"/>
       <c r="R313" s="4"/>
@@ -18987,6 +18998,9 @@
         <v>313</v>
       </c>
       <c r="B314" s="26"/>
+      <c r="I314" t="s">
+        <v>17</v>
+      </c>
       <c r="P314" s="5"/>
       <c r="Q314" s="2"/>
       <c r="R314" s="4"/>
@@ -19083,6 +19097,9 @@
         <v>316</v>
       </c>
       <c r="B317" s="26"/>
+      <c r="I317" t="s">
+        <v>15</v>
+      </c>
       <c r="P317" s="5"/>
       <c r="Q317" s="2"/>
       <c r="R317" s="4"/>
@@ -19147,6 +19164,9 @@
         <v>318</v>
       </c>
       <c r="B319" s="26"/>
+      <c r="G319" t="s">
+        <v>17</v>
+      </c>
       <c r="P319" s="5"/>
       <c r="Q319" s="2"/>
       <c r="R319" s="4"/>
@@ -19211,6 +19231,9 @@
         <v>320</v>
       </c>
       <c r="B321" s="26"/>
+      <c r="G321" t="s">
+        <v>17</v>
+      </c>
       <c r="P321" s="5"/>
       <c r="Q321" s="2"/>
       <c r="R321" s="4"/>
@@ -19275,6 +19298,9 @@
         <v>322</v>
       </c>
       <c r="B323" s="26"/>
+      <c r="E323" t="s">
+        <v>17</v>
+      </c>
       <c r="P323" s="5"/>
       <c r="Q323" s="2"/>
       <c r="R323" s="4"/>
@@ -19308,7 +19334,7 @@
       </c>
       <c r="B324" s="26"/>
       <c r="G324" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P324" s="5"/>
       <c r="Q324" s="2"/>
@@ -19342,6 +19368,9 @@
         <v>324</v>
       </c>
       <c r="B325" s="26"/>
+      <c r="D325" t="s">
+        <v>17</v>
+      </c>
       <c r="P325" s="5"/>
       <c r="Q325" s="2"/>
       <c r="R325" s="4"/>
@@ -19470,6 +19499,9 @@
         <v>328</v>
       </c>
       <c r="B329" s="26"/>
+      <c r="E329" t="s">
+        <v>17</v>
+      </c>
       <c r="P329" s="5"/>
       <c r="Q329" s="2"/>
       <c r="R329" s="4"/>
@@ -19502,6 +19534,9 @@
         <v>329</v>
       </c>
       <c r="B330" s="26"/>
+      <c r="D330" t="s">
+        <v>15</v>
+      </c>
       <c r="P330" s="5"/>
       <c r="Q330" s="2"/>
       <c r="R330" s="4"/>
@@ -19566,6 +19601,9 @@
         <v>331</v>
       </c>
       <c r="B332" s="26"/>
+      <c r="F332" t="s">
+        <v>17</v>
+      </c>
       <c r="P332" s="5"/>
       <c r="Q332" s="2"/>
       <c r="R332" s="4"/>
@@ -19727,7 +19765,7 @@
       </c>
       <c r="B337" s="26"/>
       <c r="F337" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P337" s="5"/>
       <c r="Q337" s="2"/>
@@ -19902,7 +19940,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C342" s="16"/>
       <c r="D342" s="17"/>
@@ -19949,7 +19987,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C343" s="16"/>
       <c r="D343" s="17"/>
@@ -19996,7 +20034,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C344" s="16"/>
       <c r="D344" s="17"/>
@@ -20043,7 +20081,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C345" s="16"/>
       <c r="D345" s="17"/>
@@ -20090,7 +20128,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C346" s="16"/>
       <c r="D346" s="17"/>
@@ -20137,7 +20175,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C347" s="16"/>
       <c r="D347" s="17"/>
@@ -20176,7 +20214,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C348" s="16"/>
       <c r="D348" s="17"/>
@@ -20215,7 +20253,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C349" s="16"/>
       <c r="D349" s="17"/>
@@ -20254,7 +20292,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C350" s="16"/>
       <c r="D350" s="17"/>
@@ -20293,7 +20331,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C351" s="16"/>
       <c r="D351" s="17"/>
@@ -20332,7 +20370,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C352" s="16"/>
       <c r="D352" s="17"/>
@@ -20371,7 +20409,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C353" s="16"/>
       <c r="D353" s="17"/>
@@ -20410,7 +20448,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C354" s="16"/>
       <c r="D354" s="17"/>
@@ -20449,7 +20487,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C355" s="16"/>
       <c r="D355" s="17"/>
@@ -20488,7 +20526,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C356" s="16"/>
       <c r="D356" s="17"/>
@@ -20527,7 +20565,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C357" s="16"/>
       <c r="D357" s="17"/>
@@ -20566,7 +20604,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C358" s="16"/>
       <c r="D358" s="17"/>
@@ -20605,7 +20643,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C359" s="16"/>
       <c r="D359" s="17"/>
@@ -20644,7 +20682,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C360" s="16"/>
       <c r="D360" s="17"/>
@@ -20683,7 +20721,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C361" s="16"/>
       <c r="D361" s="17"/>
@@ -20722,7 +20760,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C362" s="16"/>
       <c r="D362" s="17"/>
@@ -20761,7 +20799,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C363" s="16"/>
       <c r="D363" s="17"/>
@@ -20800,7 +20838,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C364" s="16"/>
       <c r="D364" s="17"/>
@@ -20839,7 +20877,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C365" s="16"/>
       <c r="D365" s="17"/>
@@ -20878,7 +20916,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C366" s="16"/>
       <c r="D366" s="17"/>
@@ -20917,7 +20955,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C367" s="16"/>
       <c r="D367" s="17"/>
@@ -20956,7 +20994,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C368" s="16"/>
       <c r="D368" s="17"/>
@@ -20995,7 +21033,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C369" s="16"/>
       <c r="D369" s="17"/>
@@ -21034,7 +21072,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C370" s="16"/>
       <c r="D370" s="17"/>
@@ -21073,7 +21111,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C371" s="16"/>
       <c r="D371" s="17"/>
@@ -21112,7 +21150,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C372" s="16"/>
       <c r="D372" s="17"/>
@@ -21151,7 +21189,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C373" s="16"/>
       <c r="D373" s="17"/>
@@ -21190,7 +21228,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C374" s="16"/>
       <c r="D374" s="17"/>
@@ -21229,7 +21267,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C375" s="16"/>
       <c r="D375" s="17"/>
@@ -21268,7 +21306,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C376" s="16"/>
       <c r="D376" s="17"/>
@@ -21307,7 +21345,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C377" s="16"/>
       <c r="D377" s="17"/>
@@ -21346,7 +21384,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C378" s="16"/>
       <c r="D378" s="17"/>
@@ -21385,7 +21423,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C379" s="16"/>
       <c r="D379" s="17"/>
@@ -21424,7 +21462,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C380" s="16"/>
       <c r="D380" s="17"/>
@@ -21463,7 +21501,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C381" s="16"/>
       <c r="D381" s="17"/>
@@ -21502,7 +21540,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C382" s="16"/>
       <c r="D382" s="17"/>
@@ -21541,7 +21579,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C383" s="16"/>
       <c r="D383" s="17"/>
@@ -21580,7 +21618,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C384" s="16"/>
       <c r="D384" s="17"/>
@@ -21619,7 +21657,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C385" s="16"/>
       <c r="D385" s="17"/>
@@ -21658,7 +21696,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C386" s="16"/>
       <c r="D386" s="17"/>
@@ -21697,7 +21735,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C387" s="16"/>
       <c r="D387" s="17"/>
@@ -21736,7 +21774,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C388" s="16"/>
       <c r="D388" s="17"/>
@@ -21775,7 +21813,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C389" s="16"/>
       <c r="D389" s="17"/>
@@ -21814,7 +21852,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C390" s="16"/>
       <c r="D390" s="17"/>
@@ -21853,7 +21891,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C391" s="16"/>
       <c r="D391" s="17"/>
@@ -21892,7 +21930,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C392" s="16"/>
       <c r="D392" s="17"/>
@@ -21931,7 +21969,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C393" s="16"/>
       <c r="D393" s="17"/>
@@ -21970,7 +22008,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C394" s="16"/>
       <c r="D394" s="17"/>
@@ -22009,7 +22047,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C395" s="16"/>
       <c r="D395" s="17"/>
@@ -22048,7 +22086,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C396" s="16"/>
       <c r="D396" s="17"/>
@@ -22087,7 +22125,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C397" s="16"/>
       <c r="D397" s="17"/>
@@ -22126,7 +22164,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C398" s="16"/>
       <c r="D398" s="17"/>
@@ -22165,7 +22203,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C399" s="16"/>
       <c r="D399" s="17"/>
@@ -22204,7 +22242,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C400" s="16"/>
       <c r="D400" s="17"/>
@@ -22243,7 +22281,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C401" s="16"/>
       <c r="D401" s="17"/>
@@ -22282,7 +22320,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C402" s="16"/>
       <c r="D402" s="17"/>
@@ -22321,7 +22359,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C403" s="16"/>
       <c r="D403" s="17"/>
@@ -22360,7 +22398,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C404" s="16"/>
       <c r="D404" s="17"/>
@@ -22399,7 +22437,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C405" s="16"/>
       <c r="D405" s="17"/>
@@ -22438,7 +22476,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C406" s="16"/>
       <c r="D406" s="17"/>
@@ -22477,7 +22515,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C407" s="16"/>
       <c r="D407" s="17"/>
@@ -22516,7 +22554,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C408" s="16"/>
       <c r="D408" s="17"/>
@@ -22555,7 +22593,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C409" s="16"/>
       <c r="D409" s="17"/>
@@ -22594,7 +22632,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C410" s="16"/>
       <c r="D410" s="17"/>
@@ -22633,7 +22671,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C411" s="16"/>
       <c r="D411" s="17"/>
@@ -22672,7 +22710,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C412" s="16"/>
       <c r="D412" s="17"/>
@@ -22711,7 +22749,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C413" s="16"/>
       <c r="D413" s="17"/>
@@ -22750,7 +22788,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C414" s="16"/>
       <c r="D414" s="17"/>
@@ -22789,7 +22827,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C415" s="16"/>
       <c r="D415" s="17"/>
@@ -22828,7 +22866,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C416" s="16"/>
       <c r="D416" s="17"/>
@@ -22867,7 +22905,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C417" s="16"/>
       <c r="D417" s="17"/>
@@ -22906,7 +22944,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C418" s="16"/>
       <c r="D418" s="17"/>
@@ -22945,7 +22983,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C419" s="16"/>
       <c r="D419" s="17"/>
@@ -22984,7 +23022,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C420" s="16"/>
       <c r="D420" s="17"/>
@@ -23023,7 +23061,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C421" s="16"/>
       <c r="D421" s="17"/>
